--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B3353-AF5A-4716-B70A-D4CC8E61E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3EBEF-E69F-48E8-99A0-A785924A855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="140" windowWidth="28210" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
+    <workbookView xWindow="6630" yWindow="3980" windowWidth="28180" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="778">
   <si>
     <t>iso_size()</t>
   </si>
@@ -12108,13 +12108,124 @@
   </si>
   <si>
     <t>"rough"</t>
+  </si>
+  <si>
+    <t>脚本刷类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running_lua_brush()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是从脚本刷执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼠标点击的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼠标点击的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是点击“脚本刷”后的第一次执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_down</t>
+  </si>
+  <si>
+    <t>是否按下了Ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否由长按鼠标左键触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holding_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12209,6 +12320,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -12229,7 +12347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -12314,6 +12432,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12323,7 +12459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12366,13 +12502,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12381,15 +12535,171 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="259">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -16162,93 +16472,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}" name="表8" displayName="表8" ref="A2:C31" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}" name="表8" displayName="表8" ref="A2:C31" totalsRowShown="0" headerRowDxfId="258" dataDxfId="257">
   <autoFilter ref="A2:C31" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{99ACEBAA-6FCB-4CE2-8B06-EC1D345C6E60}" name="类型" dataDxfId="247"/>
-    <tableColumn id="2" xr3:uid="{4E29546C-2E44-4130-91BB-9E6299D670BA}" name="名称" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{B8698A2F-EF44-450C-9DEF-394CEE9E08AA}" name="注释" dataDxfId="245"/>
+    <tableColumn id="1" xr3:uid="{99ACEBAA-6FCB-4CE2-8B06-EC1D345C6E60}" name="类型" dataDxfId="256"/>
+    <tableColumn id="2" xr3:uid="{4E29546C-2E44-4130-91BB-9E6299D670BA}" name="名称" dataDxfId="255"/>
+    <tableColumn id="3" xr3:uid="{B8698A2F-EF44-450C-9DEF-394CEE9E08AA}" name="注释" dataDxfId="254"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0A3C2F67-6160-4C68-9FC3-A36817FDA71F}" name="表21" displayName="表21" ref="A130:C135" headerRowCount="0" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0A3C2F67-6160-4C68-9FC3-A36817FDA71F}" name="表21" displayName="表21" ref="A130:C135" headerRowCount="0" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7C4A9893-7CE1-41B7-9969-56620770CC0A}" name="列1" headerRowDxfId="186" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{E68A9E25-E351-4FDE-9AB9-4B3897634EDD}" name="列2" headerRowDxfId="184" dataDxfId="183"/>
-    <tableColumn id="3" xr3:uid="{6D318A4B-4A17-4276-A709-3CFFBB0157E9}" name="列3" headerRowDxfId="182" dataDxfId="181"/>
+    <tableColumn id="1" xr3:uid="{7C4A9893-7CE1-41B7-9969-56620770CC0A}" name="列1" headerRowDxfId="195" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{E68A9E25-E351-4FDE-9AB9-4B3897634EDD}" name="列2" headerRowDxfId="193" dataDxfId="192"/>
+    <tableColumn id="3" xr3:uid="{6D318A4B-4A17-4276-A709-3CFFBB0157E9}" name="列3" headerRowDxfId="191" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0F152026-C940-4463-96CD-5CD35790E755}" name="表22" displayName="表22" ref="A137:C157" headerRowCount="0" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0F152026-C940-4463-96CD-5CD35790E755}" name="表22" displayName="表22" ref="A137:C157" headerRowCount="0" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30CD0937-6BE4-47F9-987C-DC92C5EC7171}" name="列1" headerRowDxfId="178" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{8DF47B2A-5D06-40A0-8794-623CA860B04B}" name="列2" headerRowDxfId="176" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{73AFC137-D91B-4403-A4F7-699813C76B6A}" name="列3" headerRowDxfId="174" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{30CD0937-6BE4-47F9-987C-DC92C5EC7171}" name="列1" headerRowDxfId="187" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{8DF47B2A-5D06-40A0-8794-623CA860B04B}" name="列2" headerRowDxfId="185" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{73AFC137-D91B-4403-A4F7-699813C76B6A}" name="列3" headerRowDxfId="183" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F59BE8DD-2D98-4251-A43E-3D66472F68F2}" name="表23" displayName="表23" ref="A158:C165" headerRowCount="0" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F59BE8DD-2D98-4251-A43E-3D66472F68F2}" name="表23" displayName="表23" ref="A158:C165" headerRowCount="0" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A4DCD70B-EF54-4C76-8B3D-B337AACFEBE2}" name="列1" headerRowDxfId="170" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{980A74F8-21DB-4459-9B01-F73E694BB112}" name="列2" headerRowDxfId="168" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{E4DE6E08-FC2F-4B4F-B81E-A50D03AF1855}" name="列3" headerRowDxfId="166" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{A4DCD70B-EF54-4C76-8B3D-B337AACFEBE2}" name="列1" headerRowDxfId="179" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{980A74F8-21DB-4459-9B01-F73E694BB112}" name="列2" headerRowDxfId="177" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{E4DE6E08-FC2F-4B4F-B81E-A50D03AF1855}" name="列3" headerRowDxfId="175" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{50ECB94D-2D3D-4EEC-9744-BD7CA7DA405C}" name="表24" displayName="表24" ref="A169:C195" headerRowCount="0" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{50ECB94D-2D3D-4EEC-9744-BD7CA7DA405C}" name="表24" displayName="表24" ref="A169:C195" headerRowCount="0" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{497726AB-C219-4AC6-9CC5-FBF853F3B720}" name="列1" headerRowDxfId="162" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{EB88CB11-F4F4-4BB6-A0EF-436114B6596D}" name="列2" headerRowDxfId="160" dataDxfId="159"/>
-    <tableColumn id="3" xr3:uid="{38F73BD2-9687-42A6-AE50-5F0DED8D26DA}" name="列3" headerRowDxfId="158" dataDxfId="157"/>
+    <tableColumn id="1" xr3:uid="{497726AB-C219-4AC6-9CC5-FBF853F3B720}" name="列1" headerRowDxfId="171" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{EB88CB11-F4F4-4BB6-A0EF-436114B6596D}" name="列2" headerRowDxfId="169" dataDxfId="168"/>
+    <tableColumn id="3" xr3:uid="{38F73BD2-9687-42A6-AE50-5F0DED8D26DA}" name="列3" headerRowDxfId="167" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{58044261-C635-4624-BEA5-16360A2DBFF2}" name="表25" displayName="表25" ref="A196:C199" headerRowCount="0" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{58044261-C635-4624-BEA5-16360A2DBFF2}" name="表25" displayName="表25" ref="A196:C199" headerRowCount="0" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CAC3FC31-7C51-494D-927B-7F91AACA76BE}" name="列1" headerRowDxfId="154" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{B7569F0F-4536-49B8-8E00-97BA58504784}" name="列2" headerRowDxfId="152" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{E3C70044-E7F3-4BC2-875B-9003F5EE43C0}" name="列3" headerRowDxfId="150" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{CAC3FC31-7C51-494D-927B-7F91AACA76BE}" name="列1" headerRowDxfId="163" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{B7569F0F-4536-49B8-8E00-97BA58504784}" name="列2" headerRowDxfId="161" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{E3C70044-E7F3-4BC2-875B-9003F5EE43C0}" name="列3" headerRowDxfId="159" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3B4AA908-2007-4F09-A997-0B068AC73860}" name="表26" displayName="表26" ref="A201:C210" headerRowCount="0" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3B4AA908-2007-4F09-A997-0B068AC73860}" name="表26" displayName="表26" ref="A201:C210" headerRowCount="0" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC2B36F9-72F0-4617-96E0-FB17D1DA90E9}" name="列1" headerRowDxfId="146" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{2AB9FD0F-C484-4B56-8831-E90F084ED850}" name="列2" headerRowDxfId="144" dataDxfId="143"/>
-    <tableColumn id="3" xr3:uid="{87718E1A-1DC3-4A55-A57F-B5E4832996B4}" name="列3" headerRowDxfId="142" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{DC2B36F9-72F0-4617-96E0-FB17D1DA90E9}" name="列1" headerRowDxfId="155" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{2AB9FD0F-C484-4B56-8831-E90F084ED850}" name="列2" headerRowDxfId="153" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{87718E1A-1DC3-4A55-A57F-B5E4832996B4}" name="列3" headerRowDxfId="151" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{4FC8CE3C-6054-47BD-B3A2-1BC2E582EC10}" name="表27" displayName="表27" ref="A211:C222" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{4FC8CE3C-6054-47BD-B3A2-1BC2E582EC10}" name="表27" displayName="表27" ref="A211:C222" headerRowCount="0" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5A2DDE6C-A60D-4BDB-B003-A81DE8D50136}" name="列1" headerRowDxfId="138" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{92BD504E-FA4D-44B5-96C6-9EF23B1BFD38}" name="列2" headerRowDxfId="136" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{A03BA192-D5EA-4AAD-AE71-667578F856EA}" name="列3" headerRowDxfId="134" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{5A2DDE6C-A60D-4BDB-B003-A81DE8D50136}" name="列1" headerRowDxfId="147" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{92BD504E-FA4D-44B5-96C6-9EF23B1BFD38}" name="列2" headerRowDxfId="145" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{A03BA192-D5EA-4AAD-AE71-667578F856EA}" name="列3" headerRowDxfId="143" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16261,166 +16571,166 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D0DD4909-88EE-417D-8066-BF472EBD12E0}" name="load_from值" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{AE2ED8B4-D158-4DE7-87A6-E72FCA7C39E0}" name="读取文件" dataDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{D0DD4909-88EE-417D-8066-BF472EBD12E0}" name="load_from值" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{AE2ED8B4-D158-4DE7-87A6-E72FCA7C39E0}" name="读取文件" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A224:C247" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A224:C247" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
   <autoFilter ref="A224:C247" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58073FA3-B651-4986-8143-6FB932DBD9B7}" name="类型" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{48F127E2-02C6-48D4-A8D7-6A1EE2BB10EF}" name="名称" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{E1B5F7F2-5735-41C3-AF73-9EA3488DA215}" name="注释" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{58073FA3-B651-4986-8143-6FB932DBD9B7}" name="类型" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{48F127E2-02C6-48D4-A8D7-6A1EE2BB10EF}" name="名称" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{E1B5F7F2-5735-41C3-AF73-9EA3488DA215}" name="注释" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C268" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C268" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
   <autoFilter ref="A249:C268" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7AFE3676-6BB6-4015-A9A2-3C00A30591EE}" name="类型" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{3DF9D97A-A61A-4164-9058-BEB8534B0E7F}" name="名称" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{8FBD946A-B239-42AE-B5B4-B0ACFABD7944}" name="注释" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{7AFE3676-6BB6-4015-A9A2-3C00A30591EE}" name="类型" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{3DF9D97A-A61A-4164-9058-BEB8534B0E7F}" name="名称" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{8FBD946A-B239-42AE-B5B4-B0ACFABD7944}" name="注释" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}" name="表9" displayName="表9" ref="A33:C34" totalsRowShown="0" headerRowDxfId="244" dataDxfId="243" tableBorderDxfId="242">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}" name="表9" displayName="表9" ref="A33:C34" totalsRowShown="0" headerRowDxfId="253" dataDxfId="252" tableBorderDxfId="251">
   <autoFilter ref="A33:C34" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9AA0D8FC-0317-4F12-A96C-6F3DDE3CE283}" name="类型" dataDxfId="241"/>
-    <tableColumn id="2" xr3:uid="{19D56C7A-3086-47CE-ACC9-AE634638F97D}" name="名称" dataDxfId="240"/>
-    <tableColumn id="3" xr3:uid="{A0E98720-D76C-47AC-9612-199B63DF25DF}" name="注释" dataDxfId="239"/>
+    <tableColumn id="1" xr3:uid="{9AA0D8FC-0317-4F12-A96C-6F3DDE3CE283}" name="类型" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{19D56C7A-3086-47CE-ACC9-AE634638F97D}" name="名称" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{A0E98720-D76C-47AC-9612-199B63DF25DF}" name="注释" dataDxfId="248"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A273:C275" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A273:C275" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="114" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{A80708A1-368F-40F0-819A-A98C2832A40C}" name="列3" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="123" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="121" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{A80708A1-368F-40F0-819A-A98C2832A40C}" name="列3" headerRowDxfId="119" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A277:C299" headerRowCount="0" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A277:C299" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="106" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="104" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{410268F5-3303-464D-AEBC-891EA8C273C5}" name="列3" headerRowDxfId="102" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="115" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="113" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{410268F5-3303-464D-AEBC-891EA8C273C5}" name="列3" headerRowDxfId="111" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A300:C305" headerRowCount="0" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A300:C305" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{BF1EEDD7-BC53-470C-A667-C28E2B2C983C}" name="列3" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="107" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="105" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{BF1EEDD7-BC53-470C-A667-C28E2B2C983C}" name="列3" headerRowDxfId="103" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A307:C331" headerRowCount="0" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A307:C331" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{62CCC029-53BF-436E-81DB-9C3B7E8293AC}" name="列3" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{62CCC029-53BF-436E-81DB-9C3B7E8293AC}" name="列3" headerRowDxfId="95" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A332:C333" headerRowCount="0" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A332:C333" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{9AF2CF2B-7572-43BE-BC8C-3A1DBE60C906}" name="列3" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{9AF2CF2B-7572-43BE-BC8C-3A1DBE60C906}" name="列3" headerRowDxfId="87" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A335:C345" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A335:C345" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="72" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{F921F1EE-6583-4CAE-B537-A09419B1D0E3}" name="列3" headerRowDxfId="70" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{F921F1EE-6583-4CAE-B537-A09419B1D0E3}" name="列3" headerRowDxfId="79" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A346:C347" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A346:C347" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="66" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="64" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{BD61D39D-9E24-4B67-A677-390E88233EB7}" name="列3" headerRowDxfId="62" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{BD61D39D-9E24-4B67-A677-390E88233EB7}" name="列3" headerRowDxfId="71" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A349:C360" headerRowCount="0" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A349:C360" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="58" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="56" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{48D0CEAF-8781-477D-A421-304A6C1F934D}" name="列3" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="65" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{48D0CEAF-8781-477D-A421-304A6C1F934D}" name="列3" headerRowDxfId="63" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A361:C362" headerRowCount="0" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A361:C362" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="50" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="48" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{7F67252B-AB17-4B3E-BBAF-4F4C152480FB}" name="列3" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="57" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{7F67252B-AB17-4B3E-BBAF-4F4C152480FB}" name="列3" headerRowDxfId="55" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A364:C403" headerRowCount="0" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A364:C403" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="40" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{883B75E1-090B-42C9-847F-71F447DBE350}" name="列3" headerRowDxfId="38" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="51" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="49" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{883B75E1-090B-42C9-847F-71F447DBE350}" name="列3" headerRowDxfId="47" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16433,137 +16743,148 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C500696E-8958-4A42-8927-4D54B4EED3B9}" name="数值" dataDxfId="238"/>
-    <tableColumn id="2" xr3:uid="{8D8BF1DB-93D5-418F-BF09-2655D6ABBEE4}" name="样式" dataDxfId="237"/>
+    <tableColumn id="1" xr3:uid="{C500696E-8958-4A42-8927-4D54B4EED3B9}" name="数值" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{8D8BF1DB-93D5-418F-BF09-2655D6ABBEE4}" name="样式" dataDxfId="246"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A404:C405" headerRowCount="0" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A404:C405" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="34" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="32" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{BB5F60F5-4709-4D63-B661-D4DE2BE0D153}" name="列3" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{BB5F60F5-4709-4D63-B661-D4DE2BE0D153}" name="列3" headerRowDxfId="39" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE80DC1E-FD8B-4B96-A22D-C636A122AFD8}" name="表1" displayName="表1" ref="A36:C42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE80DC1E-FD8B-4B96-A22D-C636A122AFD8}" name="表1" displayName="表1" ref="A36:C42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4BF342D8-B638-484B-8383-79BC53DA9EBF}" name="列1" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{A9F6FB60-21BF-4722-ACF9-9EFD8C61DC4A}" name="列2" headerRowDxfId="24" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{01C56ADD-2370-4596-8BCD-1D650D881B77}" name="列3" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{4BF342D8-B638-484B-8383-79BC53DA9EBF}" name="列1" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{A9F6FB60-21BF-4722-ACF9-9EFD8C61DC4A}" name="列2" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{01C56ADD-2370-4596-8BCD-1D650D881B77}" name="列3" headerRowDxfId="31" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3E3BDE4-06B7-4669-B778-BE50FD34A48F}" name="表2" displayName="表2" ref="A44:C50" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3E3BDE4-06B7-4669-B778-BE50FD34A48F}" name="表2" displayName="表2" ref="A44:C50" headerRowCount="0" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7B0DC4D2-BD10-4FA8-868B-38E449288781}" name="列1" headerRowDxfId="18" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{1D55AB70-9EC9-4900-A861-C7B20CA81314}" name="列2" headerRowDxfId="16" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{840807B2-AF1E-4D66-8ADD-32A70889FE14}" name="列3" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7B0DC4D2-BD10-4FA8-868B-38E449288781}" name="列1" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1D55AB70-9EC9-4900-A861-C7B20CA81314}" name="列2" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{840807B2-AF1E-4D66-8ADD-32A70889FE14}" name="列3" headerRowDxfId="23" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99C6824C-57F1-4294-AAC6-CF47D0A779DB}" name="表4" displayName="表4" ref="A51:C52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99C6824C-57F1-4294-AAC6-CF47D0A779DB}" name="表4" displayName="表4" ref="A51:C52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54D29EFF-0B7D-40A5-A5AF-6AF25CF28815}" name="列1" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F905C7CF-AC1F-4871-A07B-3168F65FEA70}" name="列2" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8AF5136A-2288-4327-8CD1-EA7E8C278CDB}" name="列3" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{54D29EFF-0B7D-40A5-A5AF-6AF25CF28815}" name="列1" headerRowDxfId="18" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F905C7CF-AC1F-4871-A07B-3168F65FEA70}" name="列2" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{8AF5136A-2288-4327-8CD1-EA7E8C278CDB}" name="列3" headerRowDxfId="14" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}" name="表3" displayName="表3" ref="E206:F222" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}" name="表3" displayName="表3" ref="E206:F222" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="E206:F222" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D6F9ADE-BB2A-4BA5-9CD9-18CE4EAB7E08}" name="地表类型索引" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5D9AE917-A137-44C2-B093-E45137056588}" name="返回值" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6D6F9ADE-BB2A-4BA5-9CD9-18CE4EAB7E08}" name="地表类型索引" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5D9AE917-A137-44C2-B093-E45137056588}" name="返回值" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A408:C413" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{909A71F0-C87A-416B-A663-20E7A2105FC4}" name="列3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}" name="表13" displayName="表13" ref="A54:C65" totalsRowShown="0" headerRowDxfId="236" dataDxfId="234" headerRowBorderDxfId="235" tableBorderDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}" name="表13" displayName="表13" ref="A54:C65" totalsRowShown="0" headerRowDxfId="245" dataDxfId="243" headerRowBorderDxfId="244" tableBorderDxfId="242">
   <autoFilter ref="A54:C65" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A06B8584-D591-4B70-8FFC-7C5F05BCD828}" name="类型" dataDxfId="232"/>
-    <tableColumn id="2" xr3:uid="{DA7D6B7A-1C26-4D8E-843E-B89D19E8FFE0}" name="名称" dataDxfId="231"/>
-    <tableColumn id="3" xr3:uid="{E58AF128-84DB-4071-8800-17E25228B6CB}" name="注释" dataDxfId="230"/>
+    <tableColumn id="1" xr3:uid="{A06B8584-D591-4B70-8FFC-7C5F05BCD828}" name="类型" dataDxfId="241"/>
+    <tableColumn id="2" xr3:uid="{DA7D6B7A-1C26-4D8E-843E-B89D19E8FFE0}" name="名称" dataDxfId="240"/>
+    <tableColumn id="3" xr3:uid="{E58AF128-84DB-4071-8800-17E25228B6CB}" name="注释" dataDxfId="239"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5523E5EC-0EDB-4DA0-9288-11B914B3CB4D}" name="表14" displayName="表14" ref="A67:C83" headerRowCount="0" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228" tableBorderDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5523E5EC-0EDB-4DA0-9288-11B914B3CB4D}" name="表14" displayName="表14" ref="A67:C83" headerRowCount="0" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237" tableBorderDxfId="236">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{564E152F-951B-4BA7-BE49-C541B1B2DA26}" name="列1" headerRowDxfId="226" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{358A7BEA-A911-4DB1-9502-AB1C45DD9641}" name="列2" headerRowDxfId="224" dataDxfId="223"/>
-    <tableColumn id="3" xr3:uid="{A7DC9902-82AC-4EF0-99D3-8376146FEB34}" name="列3" headerRowDxfId="222" dataDxfId="221"/>
+    <tableColumn id="1" xr3:uid="{564E152F-951B-4BA7-BE49-C541B1B2DA26}" name="列1" headerRowDxfId="235" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{358A7BEA-A911-4DB1-9502-AB1C45DD9641}" name="列2" headerRowDxfId="233" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{A7DC9902-82AC-4EF0-99D3-8376146FEB34}" name="列3" headerRowDxfId="231" dataDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2EE76103-06B7-44A6-856F-A7C78180D086}" name="表15" displayName="表15" ref="A84:C89" headerRowCount="0" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2EE76103-06B7-44A6-856F-A7C78180D086}" name="表15" displayName="表15" ref="A84:C89" headerRowCount="0" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7FD32AA1-5176-4522-9378-C009BF6FFA0D}" name="列1" headerRowDxfId="218" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{09F1461F-D1C3-4B5C-AB5A-B1327EAF1F4C}" name="列2" headerRowDxfId="216" dataDxfId="215"/>
-    <tableColumn id="3" xr3:uid="{97FD0586-0730-4018-AB16-D79B08C545DA}" name="列3" headerRowDxfId="214" dataDxfId="213"/>
+    <tableColumn id="1" xr3:uid="{7FD32AA1-5176-4522-9378-C009BF6FFA0D}" name="列1" headerRowDxfId="227" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{09F1461F-D1C3-4B5C-AB5A-B1327EAF1F4C}" name="列2" headerRowDxfId="225" dataDxfId="224"/>
+    <tableColumn id="3" xr3:uid="{97FD0586-0730-4018-AB16-D79B08C545DA}" name="列3" headerRowDxfId="223" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0FB9E816-7EF4-4D20-B51F-FF77FF860367}" name="表18" displayName="表18" ref="A91:C107" headerRowCount="0" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0FB9E816-7EF4-4D20-B51F-FF77FF860367}" name="表18" displayName="表18" ref="A91:C107" headerRowCount="0" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E826E7E1-0AB7-4705-A2EF-3F2ADF498D62}" name="列1" headerRowDxfId="210" dataDxfId="209"/>
-    <tableColumn id="2" xr3:uid="{3D99BD90-87A4-4B9E-9AD8-33EF1F84326D}" name="列2" headerRowDxfId="208" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{D68400B2-BABD-4B5F-86B4-D972608835F4}" name="列3" headerRowDxfId="206" dataDxfId="205"/>
+    <tableColumn id="1" xr3:uid="{E826E7E1-0AB7-4705-A2EF-3F2ADF498D62}" name="列1" headerRowDxfId="219" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{3D99BD90-87A4-4B9E-9AD8-33EF1F84326D}" name="列2" headerRowDxfId="217" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{D68400B2-BABD-4B5F-86B4-D972608835F4}" name="列3" headerRowDxfId="215" dataDxfId="214"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{8773F0F5-F429-4568-A5CE-259F04912EC3}" name="表19" displayName="表19" ref="A108:C113" headerRowCount="0" totalsRowShown="0" headerRowDxfId="204" dataDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{8773F0F5-F429-4568-A5CE-259F04912EC3}" name="表19" displayName="表19" ref="A108:C113" headerRowCount="0" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9D88B2F8-1E8F-463E-8DE8-71AA7544EB67}" name="列1" headerRowDxfId="202" dataDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{55F92031-FABF-443D-A7DB-B108E0BA055A}" name="列2" headerRowDxfId="200" dataDxfId="199"/>
-    <tableColumn id="3" xr3:uid="{81C15D0F-DF94-4862-8FAA-426C82A23ED5}" name="列3" headerRowDxfId="198" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{9D88B2F8-1E8F-463E-8DE8-71AA7544EB67}" name="列1" headerRowDxfId="211" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{55F92031-FABF-443D-A7DB-B108E0BA055A}" name="列2" headerRowDxfId="209" dataDxfId="208"/>
+    <tableColumn id="3" xr3:uid="{81C15D0F-DF94-4862-8FAA-426C82A23ED5}" name="列3" headerRowDxfId="207" dataDxfId="206"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{28E57FE5-0926-4CE1-AF90-862E513FF076}" name="表20" displayName="表20" ref="A115:C129" headerRowCount="0" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{28E57FE5-0926-4CE1-AF90-862E513FF076}" name="表20" displayName="表20" ref="A115:C129" headerRowCount="0" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0D3DABC-3E12-492D-BFF0-91A3B8B0F5EB}" name="列1" headerRowDxfId="194" dataDxfId="193"/>
-    <tableColumn id="2" xr3:uid="{6CAF8CFB-BC89-402B-AF6D-8D17803514DD}" name="列2" headerRowDxfId="192" dataDxfId="191"/>
-    <tableColumn id="3" xr3:uid="{A9E85E4E-0AB9-4101-B377-CEE919A54DA4}" name="列3" headerRowDxfId="190" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{D0D3DABC-3E12-492D-BFF0-91A3B8B0F5EB}" name="列1" headerRowDxfId="203" dataDxfId="202"/>
+    <tableColumn id="2" xr3:uid="{6CAF8CFB-BC89-402B-AF6D-8D17803514DD}" name="列2" headerRowDxfId="201" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{A9E85E4E-0AB9-4101-B377-CEE919A54DA4}" name="列3" headerRowDxfId="199" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16886,10 +17207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F405"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B204" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D409" sqref="D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -16904,11 +17225,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -17235,11 +17556,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -17270,11 +17591,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -17402,11 +17723,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
       <c r="E43" s="5">
         <v>10</v>
       </c>
@@ -17544,11 +17865,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
@@ -17689,11 +18010,11 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -17951,7 +18272,7 @@
       <c r="B86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D86" s="1"/>
@@ -17997,11 +18318,11 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -18299,11 +18620,11 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -18581,11 +18902,11 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -18965,11 +19286,11 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
@@ -18987,11 +19308,11 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -19399,11 +19720,11 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
@@ -19547,7 +19868,7 @@
       <c r="B210" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C210" s="19" t="s">
+      <c r="C210" s="14" t="s">
         <v>736</v>
       </c>
       <c r="D210" s="1"/>
@@ -19775,11 +20096,11 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="16" t="s">
+      <c r="A223" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="B223" s="16"/>
-      <c r="C223" s="16"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
@@ -20145,11 +20466,11 @@
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A248" s="16" t="s">
+      <c r="A248" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="B248" s="16"/>
-      <c r="C248" s="16"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
@@ -20427,11 +20748,11 @@
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A270" s="16" t="s">
+      <c r="A270" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="B270" s="16"/>
-      <c r="C270" s="16"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
@@ -20449,11 +20770,11 @@
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="B272" s="14"/>
-      <c r="C272" s="14"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
@@ -20497,11 +20818,11 @@
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
+      <c r="B276" s="24"/>
+      <c r="C276" s="24"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
@@ -20883,11 +21204,11 @@
       <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="18" t="s">
+      <c r="A306" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
@@ -21243,11 +21564,11 @@
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="18" t="s">
+      <c r="A334" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
+      <c r="B334" s="24"/>
+      <c r="C334" s="24"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
@@ -21421,11 +21742,11 @@
       <c r="E347" s="1"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
+      <c r="B348" s="24"/>
+      <c r="C348" s="24"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
@@ -21612,11 +21933,11 @@
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="B363" s="24"/>
+      <c r="C363" s="24"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
@@ -22164,21 +22485,99 @@
         <v>671</v>
       </c>
     </row>
+    <row r="406" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A406" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C410" s="18" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>776</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A348:C348"/>
+  <mergeCells count="22">
     <mergeCell ref="A363:C363"/>
     <mergeCell ref="A248:C248"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A272:C272"/>
     <mergeCell ref="A276:C276"/>
     <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A406:C406"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:C32"/>
@@ -22187,6 +22586,13 @@
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A348:C348"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22194,7 +22600,7 @@
   <ignoredErrors>
     <ignoredError sqref="E36:F36" numberStoredAsText="1"/>
   </ignoredErrors>
-  <tableParts count="34">
+  <tableParts count="35">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -22229,6 +22635,7 @@
     <tablePart r:id="rId33"/>
     <tablePart r:id="rId34"/>
     <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3EBEF-E69F-48E8-99A0-A785924A855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB410644-6605-415D-B358-0BCB57A4CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="3980" windowWidth="28180" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
+    <workbookView xWindow="9460" yWindow="3090" windowWidth="28180" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="780">
   <si>
     <t>iso_size()</t>
   </si>
@@ -12218,6 +12218,14 @@
   </si>
   <si>
     <t>holding_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_building()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新建筑状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12520,6 +12528,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12530,9 +12541,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16595,8 +16603,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C268" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
-  <autoFilter ref="A249:C268" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C269" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
+  <autoFilter ref="A249:C269" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16627,7 +16635,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A273:C275" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A274:C276" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="123" dataDxfId="122"/>
     <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="121" dataDxfId="120"/>
@@ -16638,7 +16646,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A277:C299" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A278:C300" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="115" dataDxfId="114"/>
     <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="113" dataDxfId="112"/>
@@ -16649,7 +16657,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A300:C305" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A301:C306" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="107" dataDxfId="106"/>
     <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="105" dataDxfId="104"/>
@@ -16660,7 +16668,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A307:C331" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A308:C332" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="99" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="97" dataDxfId="96"/>
@@ -16671,7 +16679,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A332:C333" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A333:C334" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="91" dataDxfId="90"/>
     <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="89" dataDxfId="88"/>
@@ -16682,7 +16690,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A335:C345" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A336:C346" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="83" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="81" dataDxfId="80"/>
@@ -16693,7 +16701,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A346:C347" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A347:C348" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="75" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="73" dataDxfId="72"/>
@@ -16704,7 +16712,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A349:C360" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A350:C361" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="67" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="65" dataDxfId="64"/>
@@ -16715,7 +16723,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A361:C362" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A362:C363" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="59" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="57" dataDxfId="56"/>
@@ -16726,7 +16734,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A364:C403" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A365:C404" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="51" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="49" dataDxfId="48"/>
@@ -16751,7 +16759,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A404:C405" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A405:C406" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="43" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="41" dataDxfId="40"/>
@@ -16809,7 +16817,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A408:C413" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A409:C414" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="5" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="3" dataDxfId="2"/>
@@ -17207,10 +17215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D409" sqref="D409"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17225,11 +17233,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -17556,11 +17564,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -17591,11 +17599,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -17723,11 +17731,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="E43" s="5">
         <v>10</v>
       </c>
@@ -17865,11 +17873,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
@@ -18010,11 +18018,11 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -18318,11 +18326,11 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -18620,11 +18628,11 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -18902,11 +18910,11 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -19286,11 +19294,11 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A166" s="22" t="s">
+      <c r="A166" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
@@ -19308,11 +19316,11 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -19720,11 +19728,11 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
@@ -20096,11 +20104,11 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
@@ -20466,11 +20474,11 @@
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
@@ -20528,13 +20536,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>540</v>
+        <v>778</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>779</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -20544,10 +20552,10 @@
         <v>105</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -20557,10 +20565,10 @@
         <v>105</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -20570,10 +20578,10 @@
         <v>105</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -20583,10 +20591,10 @@
         <v>105</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -20596,10 +20604,10 @@
         <v>105</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20609,10 +20617,10 @@
         <v>105</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -20622,75 +20630,75 @@
         <v>105</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -20700,106 +20708,106 @@
         <v>105</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>709</v>
+        <v>105</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>710</v>
+        <v>171</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>711</v>
+        <v>553</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>712</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A270" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
+    <row r="270" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>341</v>
-      </c>
+    <row r="271" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A271" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="21" t="s">
-        <v>698</v>
-      </c>
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
+      <c r="A272" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>554</v>
-      </c>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -20809,58 +20817,58 @@
         <v>175</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="B276" s="24"/>
-      <c r="C276" s="24"/>
+      <c r="A276" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>557</v>
-      </c>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -20870,49 +20878,49 @@
         <v>175</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>559</v>
+        <v>344</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -20922,10 +20930,10 @@
         <v>179</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -20935,10 +20943,10 @@
         <v>179</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -20948,23 +20956,23 @@
         <v>179</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -20974,36 +20982,36 @@
         <v>182</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -21013,49 +21021,49 @@
         <v>180</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>706</v>
+        <v>287</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>571</v>
+        <v>707</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -21065,10 +21073,10 @@
         <v>180</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -21078,62 +21086,62 @@
         <v>180</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>704</v>
+        <v>289</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>290</v>
+        <v>704</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -21143,36 +21151,36 @@
         <v>180</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -21182,10 +21190,10 @@
         <v>180</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -21195,71 +21203,71 @@
         <v>180</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="24" t="s">
-        <v>700</v>
-      </c>
-      <c r="B306" s="24"/>
-      <c r="C306" s="24"/>
+    <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>582</v>
+      </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>583</v>
-      </c>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>344</v>
+        <v>584</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>585</v>
+        <v>344</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -21269,23 +21277,23 @@
         <v>175</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -21295,10 +21303,10 @@
         <v>175</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -21308,10 +21316,10 @@
         <v>175</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -21321,62 +21329,62 @@
         <v>175</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -21386,10 +21394,10 @@
         <v>191</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -21399,23 +21407,23 @@
         <v>191</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -21425,10 +21433,10 @@
         <v>179</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -21438,10 +21446,10 @@
         <v>179</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -21451,10 +21459,10 @@
         <v>179</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -21464,36 +21472,36 @@
         <v>179</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>704</v>
+        <v>306</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -21503,10 +21511,10 @@
         <v>180</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>290</v>
+        <v>704</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -21516,10 +21524,10 @@
         <v>180</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -21529,10 +21537,10 @@
         <v>180</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -21542,84 +21550,84 @@
         <v>180</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="B334" s="24"/>
-      <c r="C334" s="24"/>
+    <row r="334" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>608</v>
-      </c>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>344</v>
+        <v>609</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>610</v>
+        <v>344</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -21629,23 +21637,23 @@
         <v>190</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -21655,10 +21663,10 @@
         <v>180</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -21668,10 +21676,10 @@
         <v>180</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -21681,10 +21689,10 @@
         <v>180</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -21694,97 +21702,97 @@
         <v>180</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
     <row r="347" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="B348" s="24"/>
-      <c r="C348" s="24"/>
+    <row r="348" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>619</v>
+      </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>620</v>
-      </c>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>344</v>
+        <v>621</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -21794,49 +21802,49 @@
         <v>175</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
     <row r="354" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -21846,10 +21854,10 @@
         <v>180</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -21859,10 +21867,10 @@
         <v>180</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -21872,10 +21880,10 @@
         <v>180</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -21885,97 +21893,97 @@
         <v>180</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
     <row r="362" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="B363" s="24"/>
-      <c r="C363" s="24"/>
+    <row r="363" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>633</v>
-      </c>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="B364" s="20"/>
+      <c r="C364" s="20"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -21985,23 +21993,23 @@
         <v>175</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>635</v>
+        <v>344</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -22011,10 +22019,10 @@
         <v>175</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -22024,23 +22032,23 @@
         <v>175</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -22050,10 +22058,10 @@
         <v>175</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -22063,10 +22071,10 @@
         <v>175</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -22076,10 +22084,10 @@
         <v>175</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -22089,10 +22097,10 @@
         <v>175</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -22102,10 +22110,10 @@
         <v>175</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -22115,10 +22123,10 @@
         <v>175</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -22128,23 +22136,23 @@
         <v>175</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -22154,10 +22162,10 @@
         <v>179</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -22167,10 +22175,10 @@
         <v>179</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -22180,10 +22188,10 @@
         <v>179</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -22193,10 +22201,10 @@
         <v>179</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -22206,10 +22214,10 @@
         <v>179</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -22219,10 +22227,10 @@
         <v>179</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -22232,10 +22240,10 @@
         <v>179</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -22245,10 +22253,10 @@
         <v>179</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -22258,10 +22266,10 @@
         <v>179</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -22271,10 +22279,10 @@
         <v>179</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -22284,10 +22292,10 @@
         <v>179</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -22297,10 +22305,10 @@
         <v>179</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -22310,10 +22318,10 @@
         <v>179</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -22323,10 +22331,10 @@
         <v>179</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -22336,10 +22344,10 @@
         <v>179</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -22349,10 +22357,10 @@
         <v>179</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -22362,10 +22370,10 @@
         <v>179</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -22375,10 +22383,10 @@
         <v>179</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -22388,10 +22396,10 @@
         <v>179</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -22401,23 +22409,23 @@
         <v>179</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -22427,10 +22435,10 @@
         <v>180</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -22440,78 +22448,80 @@
         <v>180</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
     <row r="405" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+    </row>
+    <row r="406" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B406" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A406" s="20" t="s">
+    <row r="407" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A407" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="B406" s="20"/>
-      <c r="C406" s="20"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="15" t="s">
+      <c r="B407" s="21"/>
+      <c r="C407" s="21"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B407" s="16" t="s">
+      <c r="B408" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C407" s="17" t="s">
+      <c r="C408" s="17" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A408" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -22519,21 +22529,21 @@
         <v>29</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C409" s="19" t="s">
+      <c r="C410" s="19" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C410" s="18" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -22541,43 +22551,48 @@
         <v>33</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C411" s="14" t="s">
-        <v>772</v>
+        <v>765</v>
+      </c>
+      <c r="C411" s="18" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>773</v>
+        <v>33</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C413" s="18" t="s">
+      <c r="C414" s="18" t="s">
         <v>776</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:C32"/>
@@ -22591,8 +22606,14 @@
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A307:C307"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB410644-6605-415D-B358-0BCB57A4CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FCD8E-6563-4F11-BF6D-A9607678269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9460" yWindow="3090" windowWidth="28180" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="783">
   <si>
     <t>iso_size()</t>
   </si>
@@ -843,9 +843,6 @@
     <t>selected_values</t>
   </si>
   <si>
-    <t>add_option(string key, string value)</t>
-  </si>
-  <si>
     <t>sort_options(bool by_second)</t>
   </si>
   <si>
@@ -12226,6 +12223,22 @@
   </si>
   <si>
     <t>刷新建筑状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_option(string key, [string value])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_options(bool by_second)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_trigger()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新触发状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16603,8 +16616,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C269" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
-  <autoFilter ref="A249:C269" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C270" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
+  <autoFilter ref="A249:C270" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16635,7 +16648,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A274:C276" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A275:C277" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="123" dataDxfId="122"/>
     <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="121" dataDxfId="120"/>
@@ -16646,7 +16659,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A278:C300" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A279:C301" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="115" dataDxfId="114"/>
     <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="113" dataDxfId="112"/>
@@ -16657,7 +16670,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A301:C306" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A302:C307" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="107" dataDxfId="106"/>
     <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="105" dataDxfId="104"/>
@@ -16668,7 +16681,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A308:C332" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A309:C333" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="99" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="97" dataDxfId="96"/>
@@ -16679,7 +16692,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A333:C334" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A334:C335" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="91" dataDxfId="90"/>
     <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="89" dataDxfId="88"/>
@@ -16690,7 +16703,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A336:C346" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A337:C347" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="83" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="81" dataDxfId="80"/>
@@ -16701,7 +16714,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A347:C348" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A348:C349" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="75" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="73" dataDxfId="72"/>
@@ -16712,7 +16725,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A350:C361" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A351:C362" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="67" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="65" dataDxfId="64"/>
@@ -16723,7 +16736,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A362:C363" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A363:C364" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="59" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="57" dataDxfId="56"/>
@@ -16734,7 +16747,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A365:C404" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A366:C405" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="51" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="49" dataDxfId="48"/>
@@ -16759,7 +16772,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A405:C406" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A406:C407" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="43" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="41" dataDxfId="40"/>
@@ -16817,7 +16830,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A409:C414" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A410:C415" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="5" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="3" dataDxfId="2"/>
@@ -17215,10 +17228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17234,20 +17247,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17258,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -17269,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17280,7 +17293,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -17291,7 +17304,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -17302,7 +17315,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -17313,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -17324,7 +17337,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -17335,7 +17348,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -17346,7 +17359,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -17357,7 +17370,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -17368,7 +17381,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -17379,7 +17392,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -17390,7 +17403,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -17401,7 +17414,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17412,7 +17425,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17423,7 +17436,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17434,7 +17447,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -17445,7 +17458,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -17456,7 +17469,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17467,7 +17480,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -17478,7 +17491,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -17489,7 +17502,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17500,7 +17513,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -17511,12 +17524,12 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -17527,7 +17540,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -17538,7 +17551,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31" x14ac:dyDescent="0.3">
@@ -17549,7 +17562,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -17560,25 +17573,25 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.3">
@@ -17589,18 +17602,18 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -17608,24 +17621,24 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17636,13 +17649,13 @@
         <v>208</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17653,13 +17666,13 @@
         <v>209</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E38" s="5">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17670,13 +17683,13 @@
         <v>210</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E39" s="5">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17684,16 +17697,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>211</v>
+        <v>779</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E40" s="5">
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -17701,16 +17714,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E41" s="5">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -17718,21 +17731,21 @@
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E42" s="5">
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -17740,24 +17753,24 @@
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E44" s="5">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -17768,13 +17781,13 @@
         <v>208</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" s="5">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -17782,16 +17795,16 @@
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E46" s="5">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -17799,16 +17812,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47" s="5">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17816,16 +17829,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>211</v>
+        <v>779</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E48" s="5">
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17833,10 +17846,10 @@
         <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>212</v>
+        <v>780</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -17844,10 +17857,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17858,7 +17871,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -17869,25 +17882,25 @@
         <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17898,7 +17911,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17909,7 +17922,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17920,7 +17933,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17931,7 +17944,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17942,7 +17955,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17953,7 +17966,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17964,7 +17977,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="47" x14ac:dyDescent="0.3">
@@ -17975,7 +17988,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.3">
@@ -17986,7 +17999,7 @@
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -17999,7 +18012,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -18012,14 +18025,14 @@
         <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -18031,10 +18044,10 @@
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -18044,10 +18057,10 @@
         <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -18057,10 +18070,10 @@
         <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -18070,10 +18083,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -18083,10 +18096,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -18096,10 +18109,10 @@
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -18109,10 +18122,10 @@
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -18125,7 +18138,7 @@
         <v>174</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -18135,10 +18148,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -18148,10 +18161,10 @@
         <v>31</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -18161,10 +18174,10 @@
         <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -18174,10 +18187,10 @@
         <v>31</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -18187,10 +18200,10 @@
         <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -18200,10 +18213,10 @@
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -18213,10 +18226,10 @@
         <v>31</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -18226,10 +18239,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -18239,10 +18252,10 @@
         <v>38</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -18255,7 +18268,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -18268,7 +18281,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -18281,7 +18294,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -18294,7 +18307,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -18307,7 +18320,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -18320,14 +18333,14 @@
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -18339,10 +18352,10 @@
         <v>59</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -18352,10 +18365,10 @@
         <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -18365,10 +18378,10 @@
         <v>31</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -18378,10 +18391,10 @@
         <v>29</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -18391,10 +18404,10 @@
         <v>29</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -18404,10 +18417,10 @@
         <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -18417,10 +18430,10 @@
         <v>31</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -18433,7 +18446,7 @@
         <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -18443,10 +18456,10 @@
         <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -18456,10 +18469,10 @@
         <v>31</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -18469,10 +18482,10 @@
         <v>31</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -18482,10 +18495,10 @@
         <v>31</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -18495,10 +18508,10 @@
         <v>31</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -18508,10 +18521,10 @@
         <v>31</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -18521,10 +18534,10 @@
         <v>31</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -18534,10 +18547,10 @@
         <v>38</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -18547,10 +18560,10 @@
         <v>38</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -18563,7 +18576,7 @@
         <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -18576,7 +18589,7 @@
         <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -18589,7 +18602,7 @@
         <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -18602,7 +18615,7 @@
         <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -18613,7 +18626,7 @@
         <v>63</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -18624,12 +18637,12 @@
         <v>65</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -18641,10 +18654,10 @@
         <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -18654,10 +18667,10 @@
         <v>31</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -18667,10 +18680,10 @@
         <v>31</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -18680,10 +18693,10 @@
         <v>29</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -18693,10 +18706,10 @@
         <v>29</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -18706,10 +18719,10 @@
         <v>31</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -18719,10 +18732,10 @@
         <v>31</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -18735,7 +18748,7 @@
         <v>174</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -18745,10 +18758,10 @@
         <v>31</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -18758,10 +18771,10 @@
         <v>31</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -18771,10 +18784,10 @@
         <v>31</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -18784,10 +18797,10 @@
         <v>31</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -18797,10 +18810,10 @@
         <v>31</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -18810,10 +18823,10 @@
         <v>38</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -18823,10 +18836,10 @@
         <v>38</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -18839,7 +18852,7 @@
         <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -18852,7 +18865,7 @@
         <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -18865,7 +18878,7 @@
         <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -18878,7 +18891,7 @@
         <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -18891,7 +18904,7 @@
         <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -18904,14 +18917,14 @@
         <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
@@ -18923,10 +18936,10 @@
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -18936,10 +18949,10 @@
         <v>31</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -18949,10 +18962,10 @@
         <v>31</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -18962,10 +18975,10 @@
         <v>31</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -18975,10 +18988,10 @@
         <v>29</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -18988,10 +19001,10 @@
         <v>29</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -19001,10 +19014,10 @@
         <v>31</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -19017,7 +19030,7 @@
         <v>174</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -19027,10 +19040,10 @@
         <v>31</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -19040,10 +19053,10 @@
         <v>31</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -19053,10 +19066,10 @@
         <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -19066,10 +19079,10 @@
         <v>31</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -19079,10 +19092,10 @@
         <v>31</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -19092,10 +19105,10 @@
         <v>31</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -19105,10 +19118,10 @@
         <v>31</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -19118,10 +19131,10 @@
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -19131,10 +19144,10 @@
         <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -19144,10 +19157,10 @@
         <v>31</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -19157,10 +19170,10 @@
         <v>38</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -19170,10 +19183,10 @@
         <v>38</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -19183,10 +19196,10 @@
         <v>38</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -19199,7 +19212,7 @@
         <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -19210,7 +19223,7 @@
         <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -19223,7 +19236,7 @@
         <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -19236,7 +19249,7 @@
         <v>78</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -19249,7 +19262,7 @@
         <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -19262,7 +19275,7 @@
         <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -19275,7 +19288,7 @@
         <v>84</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -19288,14 +19301,14 @@
         <v>85</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="23" x14ac:dyDescent="0.3">
       <c r="A166" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
@@ -19304,20 +19317,20 @@
     </row>
     <row r="167" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
@@ -19329,10 +19342,10 @@
         <v>87</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -19342,10 +19355,10 @@
         <v>87</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -19355,10 +19368,10 @@
         <v>87</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -19368,10 +19381,10 @@
         <v>87</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -19384,7 +19397,7 @@
         <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -19394,10 +19407,10 @@
         <v>87</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -19407,10 +19420,10 @@
         <v>87</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -19420,10 +19433,10 @@
         <v>87</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -19433,10 +19446,10 @@
         <v>87</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -19446,10 +19459,10 @@
         <v>87</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -19459,10 +19472,10 @@
         <v>87</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -19472,10 +19485,10 @@
         <v>87</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -19485,10 +19498,10 @@
         <v>87</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -19498,10 +19511,10 @@
         <v>88</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -19511,10 +19524,10 @@
         <v>29</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -19524,10 +19537,10 @@
         <v>29</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -19537,10 +19550,10 @@
         <v>29</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -19550,10 +19563,10 @@
         <v>29</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -19563,10 +19576,10 @@
         <v>29</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -19576,10 +19589,10 @@
         <v>87</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -19589,10 +19602,10 @@
         <v>87</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -19602,10 +19615,10 @@
         <v>87</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -19615,10 +19628,10 @@
         <v>33</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -19628,10 +19641,10 @@
         <v>87</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -19641,10 +19654,10 @@
         <v>33</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -19654,10 +19667,10 @@
         <v>33</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -19667,10 +19680,10 @@
         <v>34</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -19683,7 +19696,7 @@
         <v>90</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -19696,7 +19709,7 @@
         <v>91</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -19709,7 +19722,7 @@
         <v>92</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -19722,14 +19735,14 @@
         <v>93</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
@@ -19741,10 +19754,10 @@
         <v>98</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -19754,10 +19767,10 @@
         <v>98</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D202" s="1"/>
     </row>
@@ -19766,10 +19779,10 @@
         <v>99</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D203" s="1"/>
     </row>
@@ -19778,10 +19791,10 @@
         <v>98</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D204" s="1"/>
     </row>
@@ -19790,10 +19803,10 @@
         <v>98</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D205" s="1"/>
     </row>
@@ -19802,17 +19815,17 @@
         <v>98</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -19820,17 +19833,17 @@
         <v>98</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -19838,17 +19851,17 @@
         <v>98</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -19856,17 +19869,17 @@
         <v>98</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -19874,17 +19887,17 @@
         <v>100</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19895,14 +19908,14 @@
         <v>101</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -19913,14 +19926,14 @@
         <v>103</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19931,14 +19944,14 @@
         <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19949,14 +19962,14 @@
         <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19967,14 +19980,14 @@
         <v>107</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19985,14 +19998,14 @@
         <v>108</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20003,14 +20016,14 @@
         <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20021,14 +20034,14 @@
         <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20039,14 +20052,14 @@
         <v>111</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20057,14 +20070,14 @@
         <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20075,14 +20088,14 @@
         <v>113</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -20093,38 +20106,38 @@
         <v>114</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.3">
@@ -20135,13 +20148,13 @@
         <v>115</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20152,13 +20165,13 @@
         <v>132</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20169,13 +20182,13 @@
         <v>134</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20186,13 +20199,13 @@
         <v>136</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20203,7 +20216,7 @@
         <v>137</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>120</v>
@@ -20220,7 +20233,7 @@
         <v>138</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>121</v>
@@ -20237,7 +20250,7 @@
         <v>139</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="2" t="s">
@@ -20255,7 +20268,7 @@
         <v>141</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="2" t="s">
@@ -20273,14 +20286,14 @@
         <v>142</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20291,7 +20304,7 @@
         <v>143</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>125</v>
@@ -20308,13 +20321,13 @@
         <v>144</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -20325,13 +20338,13 @@
         <v>145</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E236" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F236" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20342,7 +20355,7 @@
         <v>146</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20353,7 +20366,7 @@
         <v>147</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20364,7 +20377,7 @@
         <v>148</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -20377,7 +20390,7 @@
         <v>149</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -20390,7 +20403,7 @@
         <v>150</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -20403,7 +20416,7 @@
         <v>151</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -20416,7 +20429,7 @@
         <v>152</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -20429,7 +20442,7 @@
         <v>153</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -20442,7 +20455,7 @@
         <v>154</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -20455,7 +20468,7 @@
         <v>155</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -20468,14 +20481,14 @@
         <v>156</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="23" x14ac:dyDescent="0.3">
       <c r="A248" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -20484,13 +20497,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -20503,7 +20516,7 @@
         <v>157</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -20516,7 +20529,7 @@
         <v>158</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -20529,7 +20542,7 @@
         <v>159</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -20539,10 +20552,10 @@
         <v>34</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C253" s="18" t="s">
         <v>778</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>779</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -20555,7 +20568,7 @@
         <v>160</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -20568,7 +20581,7 @@
         <v>161</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -20581,7 +20594,7 @@
         <v>162</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -20594,7 +20607,7 @@
         <v>163</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -20607,7 +20620,7 @@
         <v>164</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20620,7 +20633,7 @@
         <v>165</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -20633,85 +20646,85 @@
         <v>166</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>547</v>
+        <v>781</v>
+      </c>
+      <c r="C261" s="18" t="s">
+        <v>782</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -20721,106 +20734,106 @@
         <v>105</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>709</v>
+        <v>105</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>710</v>
+        <v>171</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>711</v>
+        <v>552</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>716</v>
+      <c r="C270" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A271" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="B271" s="21"/>
-      <c r="C271" s="21"/>
+    <row r="271" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>715</v>
+      </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>341</v>
-      </c>
+    <row r="272" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A272" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="A273" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>554</v>
-      </c>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="B274" s="22"/>
+      <c r="C274" s="22"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -20830,58 +20843,58 @@
         <v>175</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
+      <c r="A277" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>557</v>
-      </c>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>344</v>
+        <v>557</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -20891,49 +20904,49 @@
         <v>175</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>559</v>
+        <v>343</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -20943,10 +20956,10 @@
         <v>179</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -20956,10 +20969,10 @@
         <v>179</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -20969,23 +20982,23 @@
         <v>179</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -20995,36 +21008,36 @@
         <v>182</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -21034,49 +21047,49 @@
         <v>180</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>706</v>
+        <v>286</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>571</v>
+        <v>706</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -21086,10 +21099,10 @@
         <v>180</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -21099,62 +21112,62 @@
         <v>180</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>704</v>
+        <v>288</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>290</v>
+        <v>703</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -21164,36 +21177,36 @@
         <v>180</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -21203,10 +21216,10 @@
         <v>180</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -21216,71 +21229,71 @@
         <v>180</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="20"/>
+    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>583</v>
-      </c>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>344</v>
+        <v>583</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>585</v>
+        <v>343</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -21290,23 +21303,23 @@
         <v>175</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -21316,10 +21329,10 @@
         <v>175</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -21329,10 +21342,10 @@
         <v>175</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -21342,62 +21355,62 @@
         <v>175</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -21407,10 +21420,10 @@
         <v>191</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -21420,23 +21433,23 @@
         <v>191</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -21446,10 +21459,10 @@
         <v>179</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -21459,10 +21472,10 @@
         <v>179</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -21472,10 +21485,10 @@
         <v>179</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -21485,36 +21498,36 @@
         <v>179</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>704</v>
+        <v>305</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -21524,10 +21537,10 @@
         <v>180</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>290</v>
+        <v>703</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -21537,10 +21550,10 @@
         <v>180</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -21550,10 +21563,10 @@
         <v>180</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -21563,84 +21576,84 @@
         <v>180</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="B335" s="20"/>
-      <c r="C335" s="20"/>
+    <row r="335" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>608</v>
-      </c>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>344</v>
+        <v>608</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>610</v>
+        <v>343</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -21650,23 +21663,23 @@
         <v>190</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -21676,10 +21689,10 @@
         <v>180</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -21689,10 +21702,10 @@
         <v>180</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -21702,10 +21715,10 @@
         <v>180</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -21715,97 +21728,97 @@
         <v>180</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
     <row r="348" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="B349" s="20"/>
-      <c r="C349" s="20"/>
+    <row r="349" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>620</v>
-      </c>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>344</v>
+        <v>620</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -21815,49 +21828,49 @@
         <v>175</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>622</v>
+        <v>343</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
     <row r="355" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -21867,10 +21880,10 @@
         <v>180</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -21880,10 +21893,10 @@
         <v>180</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -21893,10 +21906,10 @@
         <v>180</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -21906,97 +21919,97 @@
         <v>180</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="B364" s="20"/>
-      <c r="C364" s="20"/>
+    <row r="364" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>633</v>
-      </c>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>344</v>
+        <v>633</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -22006,23 +22019,23 @@
         <v>175</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>635</v>
+        <v>343</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -22032,10 +22045,10 @@
         <v>175</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -22045,23 +22058,23 @@
         <v>175</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -22071,10 +22084,10 @@
         <v>175</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -22084,10 +22097,10 @@
         <v>175</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -22097,10 +22110,10 @@
         <v>175</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -22110,10 +22123,10 @@
         <v>175</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -22123,10 +22136,10 @@
         <v>175</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -22136,10 +22149,10 @@
         <v>175</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -22149,23 +22162,23 @@
         <v>175</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -22175,10 +22188,10 @@
         <v>179</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -22188,10 +22201,10 @@
         <v>179</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -22201,10 +22214,10 @@
         <v>179</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -22214,10 +22227,10 @@
         <v>179</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -22227,10 +22240,10 @@
         <v>179</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -22240,10 +22253,10 @@
         <v>179</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -22253,10 +22266,10 @@
         <v>179</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -22266,10 +22279,10 @@
         <v>179</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -22279,10 +22292,10 @@
         <v>179</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -22292,10 +22305,10 @@
         <v>179</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -22305,10 +22318,10 @@
         <v>179</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -22318,10 +22331,10 @@
         <v>179</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -22331,10 +22344,10 @@
         <v>179</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -22344,10 +22357,10 @@
         <v>179</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -22357,10 +22370,10 @@
         <v>179</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -22370,10 +22383,10 @@
         <v>179</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -22383,10 +22396,10 @@
         <v>179</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -22396,10 +22409,10 @@
         <v>179</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -22409,10 +22422,10 @@
         <v>179</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -22422,23 +22435,23 @@
         <v>179</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -22448,10 +22461,10 @@
         <v>180</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -22461,78 +22474,80 @@
         <v>180</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
     <row r="406" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B407" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A407" s="21" t="s">
-        <v>764</v>
-      </c>
-      <c r="B407" s="21"/>
-      <c r="C407" s="21"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" s="15" t="s">
+      <c r="C407" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A408" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="B408" s="21"/>
+      <c r="C408" s="21"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C409" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="B408" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C408" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A409" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -22540,21 +22555,21 @@
         <v>29</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C411" s="19" t="s">
         <v>769</v>
-      </c>
-      <c r="C410" s="19" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C411" s="18" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -22562,37 +22577,48 @@
         <v>33</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C412" s="14" t="s">
-        <v>772</v>
+        <v>764</v>
+      </c>
+      <c r="C412" s="18" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>773</v>
+        <v>33</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C414" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C414" s="18" t="s">
+      <c r="B415" s="2" t="s">
         <v>776</v>
+      </c>
+      <c r="C415" s="18" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:C32"/>
@@ -22606,14 +22632,14 @@
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A365:C365"/>
     <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A308:C308"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FCD8E-6563-4F11-BF6D-A9607678269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33520FCD-779F-412E-A4C0-B3D7347398CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="3090" windowWidth="28180" windowHeight="15370" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
+    <workbookView xWindow="2510" yWindow="3550" windowWidth="28080" windowHeight="15280" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="781">
   <si>
     <t>iso_size()</t>
   </si>
@@ -692,10 +695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>save_redo()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update_minimap([int x], [int y])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7859,19 +7858,6 @@
         <charset val="134"/>
       </rPr>
       <t>记录撤销状态，只能记录覆盖图与地形状态，一般用于更改地形之前</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记录重做状态，只能记录覆盖图与地形状态，一般用于更改地形之后</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12541,9 +12527,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12554,6 +12537,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16616,8 +16602,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C270" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
-  <autoFilter ref="A249:C270" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A249:C269" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131">
+  <autoFilter ref="A249:C269" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16648,7 +16634,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A275:C277" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A274:C276" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="123" dataDxfId="122"/>
     <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="121" dataDxfId="120"/>
@@ -16659,7 +16645,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A279:C301" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A278:C300" headerRowCount="0" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="115" dataDxfId="114"/>
     <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="113" dataDxfId="112"/>
@@ -16670,7 +16656,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A302:C307" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A301:C306" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="107" dataDxfId="106"/>
     <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="105" dataDxfId="104"/>
@@ -16681,7 +16667,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A309:C333" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A308:C332" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="99" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="97" dataDxfId="96"/>
@@ -16692,7 +16678,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A334:C335" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A333:C334" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="91" dataDxfId="90"/>
     <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="89" dataDxfId="88"/>
@@ -16703,7 +16689,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A337:C347" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A336:C346" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="83" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="81" dataDxfId="80"/>
@@ -16714,7 +16700,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A348:C349" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A347:C348" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="75" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="73" dataDxfId="72"/>
@@ -16725,7 +16711,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A351:C362" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A350:C361" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="67" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="65" dataDxfId="64"/>
@@ -16736,7 +16722,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A363:C364" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A362:C363" headerRowCount="0" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="59" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="57" dataDxfId="56"/>
@@ -16747,7 +16733,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A366:C405" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A365:C404" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="51" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="49" dataDxfId="48"/>
@@ -16772,7 +16758,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A406:C407" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A405:C406" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="43" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="41" dataDxfId="40"/>
@@ -16830,7 +16816,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A410:C415" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A409:C414" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="5" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="3" dataDxfId="2"/>
@@ -17228,10 +17214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F415"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17246,21 +17232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17271,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -17282,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17293,7 +17279,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -17304,7 +17290,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -17315,7 +17301,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -17326,7 +17312,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -17337,7 +17323,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -17348,7 +17334,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -17359,7 +17345,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -17370,7 +17356,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -17381,7 +17367,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -17392,7 +17378,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -17403,7 +17389,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -17414,7 +17400,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17425,7 +17411,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17436,7 +17422,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17447,7 +17433,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -17458,7 +17444,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -17469,7 +17455,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17480,7 +17466,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -17491,7 +17477,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -17502,7 +17488,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -17513,7 +17499,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -17524,12 +17510,12 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -17540,7 +17526,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -17551,7 +17537,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31" x14ac:dyDescent="0.3">
@@ -17562,7 +17548,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -17573,25 +17559,25 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.3">
@@ -17602,43 +17588,43 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>717</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17646,16 +17632,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17663,16 +17649,16 @@
         <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E38" s="5">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17680,16 +17666,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E39" s="5">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17697,16 +17683,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E40" s="5">
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -17714,16 +17700,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E41" s="5">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -17731,46 +17717,46 @@
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E42" s="5">
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
       <c r="E43" s="5">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E44" s="5">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -17778,16 +17764,16 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E45" s="5">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -17795,16 +17781,16 @@
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E46" s="5">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -17812,16 +17798,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="5">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17829,16 +17815,16 @@
         <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E48" s="5">
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17846,10 +17832,10 @@
         <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -17857,10 +17843,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17871,7 +17857,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -17882,25 +17868,25 @@
         <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17911,7 +17897,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17922,7 +17908,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17933,7 +17919,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17944,7 +17930,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17955,7 +17941,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17966,7 +17952,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -17977,7 +17963,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="47" x14ac:dyDescent="0.3">
@@ -17988,7 +17974,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.3">
@@ -17999,7 +17985,7 @@
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -18012,7 +17998,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -18025,17 +18011,17 @@
         <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
+      <c r="A66" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -18044,10 +18030,10 @@
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -18057,10 +18043,10 @@
         <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -18070,10 +18056,10 @@
         <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -18083,10 +18069,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -18096,10 +18082,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -18109,10 +18095,10 @@
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -18122,10 +18108,10 @@
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -18135,10 +18121,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -18148,10 +18134,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -18161,10 +18147,10 @@
         <v>31</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -18174,10 +18160,10 @@
         <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -18187,10 +18173,10 @@
         <v>31</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -18200,10 +18186,10 @@
         <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -18213,10 +18199,10 @@
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -18226,10 +18212,10 @@
         <v>31</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -18239,10 +18225,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -18252,10 +18238,10 @@
         <v>38</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -18268,7 +18254,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -18281,7 +18267,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -18294,7 +18280,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -18307,7 +18293,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -18320,7 +18306,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -18333,17 +18319,17 @@
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
+      <c r="A90" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -18352,10 +18338,10 @@
         <v>59</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -18365,10 +18351,10 @@
         <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -18378,10 +18364,10 @@
         <v>31</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -18391,10 +18377,10 @@
         <v>29</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -18404,10 +18390,10 @@
         <v>29</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -18417,10 +18403,10 @@
         <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -18430,10 +18416,10 @@
         <v>31</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -18443,10 +18429,10 @@
         <v>31</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -18456,10 +18442,10 @@
         <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -18469,10 +18455,10 @@
         <v>31</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -18482,10 +18468,10 @@
         <v>31</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -18495,10 +18481,10 @@
         <v>31</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -18508,10 +18494,10 @@
         <v>31</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -18521,10 +18507,10 @@
         <v>31</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -18534,10 +18520,10 @@
         <v>31</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -18547,10 +18533,10 @@
         <v>38</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -18560,10 +18546,10 @@
         <v>38</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -18576,7 +18562,7 @@
         <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -18589,7 +18575,7 @@
         <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -18602,7 +18588,7 @@
         <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -18615,7 +18601,7 @@
         <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -18626,7 +18612,7 @@
         <v>63</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -18637,15 +18623,15 @@
         <v>65</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
+      <c r="A114" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -18654,10 +18640,10 @@
         <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -18667,10 +18653,10 @@
         <v>31</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -18680,10 +18666,10 @@
         <v>31</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -18693,10 +18679,10 @@
         <v>29</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -18706,10 +18692,10 @@
         <v>29</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -18719,10 +18705,10 @@
         <v>31</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -18732,10 +18718,10 @@
         <v>31</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -18745,10 +18731,10 @@
         <v>31</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -18758,10 +18744,10 @@
         <v>31</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -18771,10 +18757,10 @@
         <v>31</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -18784,10 +18770,10 @@
         <v>31</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -18797,10 +18783,10 @@
         <v>31</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -18810,10 +18796,10 @@
         <v>31</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -18823,10 +18809,10 @@
         <v>38</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -18836,10 +18822,10 @@
         <v>38</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -18852,7 +18838,7 @@
         <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -18865,7 +18851,7 @@
         <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -18878,7 +18864,7 @@
         <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -18891,7 +18877,7 @@
         <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -18904,7 +18890,7 @@
         <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -18917,17 +18903,17 @@
         <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
+      <c r="A136" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -18936,10 +18922,10 @@
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -18949,10 +18935,10 @@
         <v>31</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -18962,10 +18948,10 @@
         <v>31</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -18975,10 +18961,10 @@
         <v>31</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -18988,10 +18974,10 @@
         <v>29</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -19001,10 +18987,10 @@
         <v>29</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -19014,10 +19000,10 @@
         <v>31</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -19027,10 +19013,10 @@
         <v>31</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -19040,10 +19026,10 @@
         <v>31</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -19053,10 +19039,10 @@
         <v>31</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -19066,10 +19052,10 @@
         <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -19079,10 +19065,10 @@
         <v>31</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -19092,10 +19078,10 @@
         <v>31</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -19105,10 +19091,10 @@
         <v>31</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -19118,10 +19104,10 @@
         <v>31</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -19131,10 +19117,10 @@
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -19144,10 +19130,10 @@
         <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -19157,10 +19143,10 @@
         <v>31</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -19170,10 +19156,10 @@
         <v>38</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -19183,10 +19169,10 @@
         <v>38</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -19196,10 +19182,10 @@
         <v>38</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -19212,7 +19198,7 @@
         <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -19223,7 +19209,7 @@
         <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -19236,7 +19222,7 @@
         <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -19249,7 +19235,7 @@
         <v>78</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -19262,7 +19248,7 @@
         <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -19275,7 +19261,7 @@
         <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -19288,7 +19274,7 @@
         <v>84</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -19301,39 +19287,39 @@
         <v>85</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A166" s="23" t="s">
-        <v>689</v>
-      </c>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
+      <c r="A166" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="B168" s="22"/>
-      <c r="C168" s="22"/>
+      <c r="A168" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -19342,10 +19328,10 @@
         <v>87</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -19355,10 +19341,10 @@
         <v>87</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -19368,10 +19354,10 @@
         <v>87</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -19381,10 +19367,10 @@
         <v>87</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -19397,7 +19383,7 @@
         <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -19407,10 +19393,10 @@
         <v>87</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -19420,10 +19406,10 @@
         <v>87</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -19433,10 +19419,10 @@
         <v>87</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -19446,10 +19432,10 @@
         <v>87</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -19459,10 +19445,10 @@
         <v>87</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -19472,10 +19458,10 @@
         <v>87</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -19485,10 +19471,10 @@
         <v>87</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -19498,10 +19484,10 @@
         <v>87</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -19511,10 +19497,10 @@
         <v>88</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -19524,10 +19510,10 @@
         <v>29</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -19537,10 +19523,10 @@
         <v>29</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -19550,10 +19536,10 @@
         <v>29</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -19563,10 +19549,10 @@
         <v>29</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -19576,10 +19562,10 @@
         <v>29</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -19589,10 +19575,10 @@
         <v>87</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -19602,10 +19588,10 @@
         <v>87</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -19615,10 +19601,10 @@
         <v>87</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -19628,10 +19614,10 @@
         <v>33</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -19641,10 +19627,10 @@
         <v>87</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -19654,10 +19640,10 @@
         <v>33</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -19667,10 +19653,10 @@
         <v>33</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -19680,10 +19666,10 @@
         <v>34</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -19696,7 +19682,7 @@
         <v>90</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -19709,7 +19695,7 @@
         <v>91</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -19722,7 +19708,7 @@
         <v>92</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -19735,17 +19721,17 @@
         <v>93</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
+      <c r="A200" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
@@ -19754,10 +19740,10 @@
         <v>98</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -19767,10 +19753,10 @@
         <v>98</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D202" s="1"/>
     </row>
@@ -19779,10 +19765,10 @@
         <v>99</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D203" s="1"/>
     </row>
@@ -19791,10 +19777,10 @@
         <v>98</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D204" s="1"/>
     </row>
@@ -19803,10 +19789,10 @@
         <v>98</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D205" s="1"/>
     </row>
@@ -19815,17 +19801,17 @@
         <v>98</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -19833,17 +19819,17 @@
         <v>98</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -19851,17 +19837,17 @@
         <v>98</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -19869,17 +19855,17 @@
         <v>98</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -19887,17 +19873,17 @@
         <v>100</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19908,14 +19894,14 @@
         <v>101</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -19926,14 +19912,14 @@
         <v>103</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19944,14 +19930,14 @@
         <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19962,14 +19948,14 @@
         <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19980,14 +19966,14 @@
         <v>107</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19998,14 +19984,14 @@
         <v>108</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20016,14 +20002,14 @@
         <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20034,14 +20020,14 @@
         <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20052,14 +20038,14 @@
         <v>111</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20070,14 +20056,14 @@
         <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20088,14 +20074,14 @@
         <v>113</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -20106,38 +20092,38 @@
         <v>114</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
+      <c r="A223" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>340</v>
-      </c>
       <c r="E224" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.3">
@@ -20148,13 +20134,13 @@
         <v>115</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20165,13 +20151,13 @@
         <v>132</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20182,13 +20168,13 @@
         <v>134</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20199,13 +20185,13 @@
         <v>136</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20216,7 +20202,7 @@
         <v>137</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>120</v>
@@ -20233,7 +20219,7 @@
         <v>138</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>121</v>
@@ -20250,7 +20236,7 @@
         <v>139</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="2" t="s">
@@ -20268,7 +20254,7 @@
         <v>141</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="2" t="s">
@@ -20286,14 +20272,14 @@
         <v>142</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20304,7 +20290,7 @@
         <v>143</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>125</v>
@@ -20321,13 +20307,13 @@
         <v>144</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -20338,13 +20324,13 @@
         <v>145</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20355,7 +20341,7 @@
         <v>146</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20366,7 +20352,7 @@
         <v>147</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20377,7 +20363,7 @@
         <v>148</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -20390,7 +20376,7 @@
         <v>149</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -20403,7 +20389,7 @@
         <v>150</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -20416,7 +20402,7 @@
         <v>151</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -20429,7 +20415,7 @@
         <v>152</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -20442,7 +20428,7 @@
         <v>153</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -20455,7 +20441,7 @@
         <v>154</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -20468,7 +20454,7 @@
         <v>155</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -20481,29 +20467,29 @@
         <v>156</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A248" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
+      <c r="A248" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C249" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>340</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -20516,7 +20502,7 @@
         <v>157</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -20529,7 +20515,7 @@
         <v>158</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -20542,7 +20528,7 @@
         <v>159</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -20552,10 +20538,10 @@
         <v>34</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -20568,7 +20554,7 @@
         <v>160</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -20581,7 +20567,7 @@
         <v>161</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -20594,7 +20580,7 @@
         <v>162</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -20607,7 +20593,7 @@
         <v>163</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -20620,7 +20606,7 @@
         <v>164</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20633,7 +20619,7 @@
         <v>165</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -20646,7 +20632,7 @@
         <v>166</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -20656,10 +20642,10 @@
         <v>34</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -20672,7 +20658,7 @@
         <v>167</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -20682,10 +20668,10 @@
         <v>105</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -20698,7 +20684,7 @@
         <v>168</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -20708,10 +20694,10 @@
         <v>105</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -20724,7 +20710,7 @@
         <v>169</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -20737,340 +20723,340 @@
         <v>170</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>105</v>
+        <v>706</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>171</v>
+        <v>707</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>552</v>
+        <v>708</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="3" t="s">
         <v>713</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>715</v>
-      </c>
+    <row r="271" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A271" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A272" s="21" t="s">
-        <v>696</v>
-      </c>
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>340</v>
-      </c>
+      <c r="A273" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B273" s="21"/>
+      <c r="C273" s="21"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
+    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>555</v>
-      </c>
+      <c r="A277" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="B277" s="24"/>
+      <c r="C277" s="24"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
+    <row r="278" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>557</v>
+        <v>342</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>343</v>
+        <v>556</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>569</v>
+        <v>702</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>704</v>
@@ -21081,440 +21067,440 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>707</v>
+        <v>286</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>288</v>
+        <v>701</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>703</v>
+        <v>288</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>581</v>
-      </c>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="B307" s="24"/>
+      <c r="C307" s="24"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="20"/>
+    <row r="308" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>583</v>
+        <v>342</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>343</v>
+        <v>582</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -21524,1030 +21510,1028 @@
         <v>179</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>305</v>
+        <v>701</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>703</v>
+        <v>288</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>606</v>
-      </c>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="B335" s="24"/>
+      <c r="C335" s="24"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+    <row r="336" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>608</v>
+        <v>342</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>343</v>
+        <v>607</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
     <row r="342" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
     <row r="348" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>618</v>
-      </c>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="20"/>
+    <row r="350" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>617</v>
+      </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>620</v>
+        <v>342</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>343</v>
+        <v>619</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
     <row r="355" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
     <row r="357" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
     <row r="358" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
     <row r="359" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
     <row r="360" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>631</v>
-      </c>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="B364" s="24"/>
+      <c r="C364" s="24"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="B365" s="20"/>
-      <c r="C365" s="20"/>
+    <row r="365" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>633</v>
+        <v>342</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>343</v>
+        <v>632</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
     <row r="370" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
     <row r="371" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>321</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
     <row r="402" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
     <row r="403" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
     <row r="406" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-    </row>
-    <row r="407" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A408" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="B408" s="21"/>
-      <c r="C408" s="21"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A407" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C408" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B409" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C409" s="17" t="s">
-        <v>340</v>
+    </row>
+    <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -22557,19 +22541,19 @@
       <c r="B410" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" s="19" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C411" s="19" t="s">
-        <v>769</v>
+        <v>762</v>
+      </c>
+      <c r="C411" s="18" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -22577,48 +22561,43 @@
         <v>33</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C412" s="18" t="s">
-        <v>765</v>
+        <v>768</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>33</v>
+        <v>770</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>772</v>
+        <v>33</v>
       </c>
       <c r="B414" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C414" s="18" t="s">
         <v>773</v>
-      </c>
-      <c r="C414" s="14" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="C415" s="18" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A407:C407"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:C32"/>
@@ -22632,14 +22611,8 @@
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A349:C349"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
